--- a/Populator.xlsx
+++ b/Populator.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="19155" windowHeight="8250" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="19155" windowHeight="8250" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Client Info" sheetId="1" r:id="rId1"/>
     <sheet name="Implementation Status" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="3" r:id="rId3"/>
+    <sheet name="AtRisk" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Client Info'!$A$1:$AB$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$1:$F$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Implementation Status'!$A$1:$O$68</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -4948,8 +4949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5253,7 +5254,7 @@
         <v>2</v>
       </c>
       <c r="Y3" t="str">
-        <f t="shared" ref="Y3:Y66" si="8">Y2</f>
+        <f t="shared" ref="Y3:Y65" si="8">Y2</f>
         <v xml:space="preserve">, contract_type: </v>
       </c>
       <c r="Z3" t="str">
@@ -11860,7 +11861,7 @@
         <v>32000</v>
       </c>
       <c r="W66" t="str">
-        <f t="shared" ref="W66:Y68" si="10">W65</f>
+        <f t="shared" ref="W66:Y66" si="10">W65</f>
         <v xml:space="preserve">, sales_rep_id: </v>
       </c>
       <c r="X66">
@@ -12103,8 +12104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12312,7 +12313,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E3:M66" si="5">E3</f>
+        <f t="shared" ref="E4:M66" si="5">E3</f>
         <v xml:space="preserve">, notes: </v>
       </c>
       <c r="F4" t="s">
@@ -12466,7 +12467,7 @@
         <v>"2011-06-01"</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" ref="M6:M68" si="6">M5</f>
+        <f t="shared" ref="M6:M66" si="6">M5</f>
         <v xml:space="preserve">, client_id: </v>
       </c>
       <c r="N6">
@@ -16336,7 +16337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -17760,4 +17761,622 @@
   <autoFilter ref="A1:F68"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="str">
+        <f>"Atrisk.create_default("&amp;A1&amp;")"</f>
+        <v>Atrisk.create_default(1)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B65" si="0">"Atrisk.create_default("&amp;A2&amp;")"</f>
+        <v>Atrisk.create_default(2)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(3)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(4)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(5)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(6)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(7)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(8)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(9)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(10)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(11)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(12)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(13)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(14)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(15)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(16)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(17)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(18)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(19)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(20)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(21)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(22)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(23)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(24)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(25)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(26)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(27)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(28)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(29)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(30)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(31)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(32)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(33)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(34)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(35)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(36)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(37)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(38)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(39)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(40)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(41)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(42)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(43)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(44)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(45)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(46)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(47)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(48)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(49)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(50)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(51)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(52)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(53)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(54)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(55)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(56)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(57)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(58)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(59)</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(60)</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(61)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(62)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(63)</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(64)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>Atrisk.create_default(65)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" ref="B66:B67" si="1">"Atrisk.create_default("&amp;A66&amp;")"</f>
+        <v>Atrisk.create_default(66)</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="1"/>
+        <v>Atrisk.create_default(67)</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>